--- a/PreData.xlsx
+++ b/PreData.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taasj\Documents\Med School Research\Diagnostic Knee Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VHAMOURYAND15\Desktop\R local\Knee_Research_MedSchool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E3E12F-D208-4E86-9309-81308C9B39E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B402F82-4A1C-4ADB-9B4C-397E4608FDC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21456" yWindow="168" windowWidth="2388" windowHeight="564" xr2:uid="{4889D4E3-9F14-47A2-906D-CC27A0623C07}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4889D4E3-9F14-47A2-906D-CC27A0623C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>Subject</t>
   </si>
@@ -211,31 +210,22 @@
     <t>ACL, MCL</t>
   </si>
   <si>
-    <t>MCL, ACL</t>
-  </si>
-  <si>
     <t>LCL</t>
   </si>
   <si>
-    <t>PCL, MCL</t>
-  </si>
-  <si>
     <t>MCL</t>
   </si>
   <si>
-    <t>LCL, ACL</t>
-  </si>
-  <si>
     <t>ACL, LCL</t>
   </si>
   <si>
-    <t>Stand Alone</t>
-  </si>
-  <si>
     <t>PreviousThiel</t>
   </si>
   <si>
     <t>PreviousDiagnostic</t>
+  </si>
+  <si>
+    <t>MCL, PCL</t>
   </si>
 </sst>
 </file>
@@ -587,49 +577,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E328D5C5-D213-419B-8034-69E821598B11}">
-  <dimension ref="A1:BB19"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
-    <col min="22" max="23" width="19.44140625" customWidth="1"/>
-    <col min="24" max="24" width="19.33203125" customWidth="1"/>
-    <col min="25" max="25" width="17.21875" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" customWidth="1"/>
-    <col min="29" max="29" width="14.77734375" customWidth="1"/>
-    <col min="30" max="30" width="15.44140625" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" customWidth="1"/>
-    <col min="33" max="33" width="13.21875" customWidth="1"/>
-    <col min="34" max="35" width="14.33203125" customWidth="1"/>
-    <col min="36" max="36" width="14.21875" customWidth="1"/>
-    <col min="37" max="37" width="14.44140625" customWidth="1"/>
-    <col min="38" max="38" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="23" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" customWidth="1"/>
+    <col min="34" max="36" width="14.28515625" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" customWidth="1"/>
+    <col min="38" max="38" width="12.5703125" customWidth="1"/>
     <col min="40" max="40" width="14" customWidth="1"/>
-    <col min="41" max="42" width="13.44140625" customWidth="1"/>
-    <col min="46" max="46" width="13.33203125" customWidth="1"/>
-    <col min="47" max="47" width="13.77734375" customWidth="1"/>
-    <col min="48" max="48" width="13.21875" customWidth="1"/>
-    <col min="49" max="49" width="13.77734375" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" customWidth="1"/>
-    <col min="51" max="51" width="12.77734375" customWidth="1"/>
-    <col min="52" max="52" width="15.109375" customWidth="1"/>
-    <col min="53" max="53" width="14.6640625" customWidth="1"/>
-    <col min="54" max="54" width="15.5546875" customWidth="1"/>
+    <col min="41" max="42" width="13.42578125" customWidth="1"/>
+    <col min="46" max="46" width="13.28515625" customWidth="1"/>
+    <col min="47" max="47" width="13.7109375" customWidth="1"/>
+    <col min="48" max="48" width="13.28515625" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" customWidth="1"/>
+    <col min="50" max="50" width="13.85546875" customWidth="1"/>
+    <col min="51" max="51" width="12.7109375" customWidth="1"/>
+    <col min="52" max="52" width="15.140625" customWidth="1"/>
+    <col min="53" max="53" width="14.7109375" customWidth="1"/>
+    <col min="54" max="54" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,8 +781,14 @@
       <c r="BB1" t="s">
         <v>53</v>
       </c>
+      <c r="BC1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -843,7 +838,7 @@
         <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
         <v>55</v>
@@ -947,8 +942,14 @@
       <c r="BB2">
         <v>0</v>
       </c>
+      <c r="BC2">
+        <v>8</v>
+      </c>
+      <c r="BD2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -980,13 +981,13 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
         <v>54</v>
@@ -1001,7 +1002,7 @@
         <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1111,8 +1112,14 @@
       <c r="BB3">
         <v>1</v>
       </c>
+      <c r="BC3">
+        <v>10</v>
+      </c>
+      <c r="BD3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1144,10 +1151,10 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
         <v>54</v>
@@ -1156,7 +1163,7 @@
         <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s">
         <v>55</v>
@@ -1165,7 +1172,7 @@
         <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1275,8 +1282,14 @@
       <c r="BB4">
         <v>0</v>
       </c>
+      <c r="BC4">
+        <v>10</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1314,10 +1327,10 @@
         <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
         <v>55</v>
@@ -1326,10 +1339,10 @@
         <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1439,8 +1452,14 @@
       <c r="BB5">
         <v>1</v>
       </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1478,13 +1497,13 @@
         <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
         <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
         <v>54</v>
@@ -1493,7 +1512,7 @@
         <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1603,8 +1622,14 @@
       <c r="BB6">
         <v>1</v>
       </c>
+      <c r="BC6">
+        <v>5</v>
+      </c>
+      <c r="BD6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1639,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
         <v>56</v>
@@ -1651,7 +1676,7 @@
         <v>55</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
         <v>57</v>
@@ -1767,8 +1792,14 @@
       <c r="BB7">
         <v>0</v>
       </c>
+      <c r="BC7">
+        <v>10</v>
+      </c>
+      <c r="BD7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1803,16 +1834,16 @@
         <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
         <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s">
         <v>56</v>
@@ -1821,7 +1852,7 @@
         <v>55</v>
       </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1931,8 +1962,14 @@
       <c r="BB8">
         <v>1</v>
       </c>
+      <c r="BC8">
+        <v>8</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1976,16 +2013,16 @@
         <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
         <v>54</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -2095,103 +2132,10 @@
       <c r="BB9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
+      <c r="BC9">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19">
+      <c r="BD9">
         <v>2</v>
       </c>
     </row>
